--- a/data/trans_orig/P36S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A7C419-3657-4812-B798-344DCB9A67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCDC925-EBEA-4610-BE16-E11EFC187FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D3190A5-BD8B-4EBF-B835-711C47B33222}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34AA269F-ED13-49E5-9C18-0F1718C35E88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="557">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -76,1594 +76,1639 @@
     <t>2,66%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>Otro tipo de alimentos</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>Otro tipo de alimentos</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2015 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2015 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44285DD7-AD2A-4637-B059-616372070FBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E4B62-3339-4AF7-ADB7-D375B7CC09A6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2561,10 +2606,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2573,13 +2618,13 @@
         <v>9700</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -2588,13 +2633,13 @@
         <v>19253</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,7 +2660,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2624,13 +2669,13 @@
         <v>1073</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2639,13 +2684,13 @@
         <v>1073</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2705,13 @@
         <v>2814</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2675,13 +2720,13 @@
         <v>929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2696,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2756,13 @@
         <v>1917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2729,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
@@ -2741,13 +2786,13 @@
         <v>8600</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2807,13 @@
         <v>17150</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -2777,13 +2822,13 @@
         <v>30758</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -2792,13 +2837,13 @@
         <v>47908</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2858,13 @@
         <v>546238</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>516</v>
@@ -2828,13 +2873,13 @@
         <v>526452</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>1062</v>
@@ -2843,13 +2888,13 @@
         <v>1072691</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2950,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2917,13 +2962,13 @@
         <v>19325</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -2932,13 +2977,13 @@
         <v>14931</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -2947,13 +2992,13 @@
         <v>34256</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +3019,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2986,10 +3031,10 @@
         <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2998,13 +3043,13 @@
         <v>3958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3064,13 @@
         <v>2004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3040,7 +3085,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3049,13 +3094,13 @@
         <v>2004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3115,13 @@
         <v>10265</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3085,13 +3130,13 @@
         <v>15347</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3103,10 +3148,10 @@
         <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3166,13 @@
         <v>44532</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -3136,13 +3181,13 @@
         <v>45965</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -3151,13 +3196,13 @@
         <v>90497</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3217,13 @@
         <v>882739</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>831</v>
@@ -3187,13 +3232,13 @@
         <v>887193</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>1652</v>
@@ -3202,13 +3247,13 @@
         <v>1769933</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3309,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3276,13 +3321,13 @@
         <v>15973</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3291,13 +3336,13 @@
         <v>11171</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -3306,13 +3351,13 @@
         <v>27144</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3372,13 @@
         <v>2006</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3342,13 +3387,13 @@
         <v>976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3357,13 +3402,13 @@
         <v>2982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3423,13 @@
         <v>1681</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -3393,13 +3438,13 @@
         <v>916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -3408,13 +3453,13 @@
         <v>2597</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,10 +3474,10 @@
         <v>9337</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>148</v>
@@ -3462,10 +3507,10 @@
         <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3525,13 @@
         <v>43912</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -3495,13 +3540,13 @@
         <v>35031</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -3510,13 +3555,13 @@
         <v>78944</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3576,13 @@
         <v>604560</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>629</v>
@@ -3546,13 +3591,13 @@
         <v>618607</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>1202</v>
@@ -3561,13 +3606,13 @@
         <v>1223167</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3668,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3635,13 +3680,13 @@
         <v>19621</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -3650,13 +3695,13 @@
         <v>17748</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -3665,13 +3710,13 @@
         <v>37370</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3731,13 @@
         <v>7438</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3701,13 +3746,13 @@
         <v>1068</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -3716,13 +3761,13 @@
         <v>8506</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3788,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3758,7 +3803,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3773,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3833,13 @@
         <v>17512</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -3803,13 +3848,13 @@
         <v>10673</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -3818,13 +3863,13 @@
         <v>28185</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3884,13 @@
         <v>76419</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>87</v>
@@ -3854,13 +3899,13 @@
         <v>89611</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>166</v>
@@ -3869,13 +3914,13 @@
         <v>166030</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3935,13 @@
         <v>819463</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>878</v>
@@ -3905,13 +3950,13 @@
         <v>916487</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>1747</v>
@@ -3920,13 +3965,13 @@
         <v>1735950</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4039,13 @@
         <v>67542</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4009,13 +4054,13 @@
         <v>53550</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="M39" s="7">
         <v>120</v>
@@ -4024,13 +4069,13 @@
         <v>121092</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4090,13 @@
         <v>9443</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -4060,13 +4105,13 @@
         <v>7076</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -4075,13 +4120,13 @@
         <v>16519</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4141,13 @@
         <v>6499</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4111,13 +4156,13 @@
         <v>1846</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -4126,13 +4171,13 @@
         <v>8344</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4192,13 @@
         <v>39030</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H42" s="7">
         <v>50</v>
@@ -4165,10 +4210,10 @@
         <v>150</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M42" s="7">
         <v>87</v>
@@ -4177,10 +4222,10 @@
         <v>88873</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>44</v>
@@ -4198,13 +4243,13 @@
         <v>182013</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>203</v>
@@ -4213,13 +4258,13 @@
         <v>204008</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="M43" s="7">
         <v>379</v>
@@ -4228,13 +4273,13 @@
         <v>386022</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4294,13 @@
         <v>2965289</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H44" s="7">
         <v>2979</v>
@@ -4264,13 +4309,13 @@
         <v>3058851</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M44" s="7">
         <v>5890</v>
@@ -4279,13 +4324,13 @@
         <v>6024139</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4386,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4362,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF878ABD-B7E9-4272-8707-4648433DE141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E3451-380F-4744-A6C6-6D05B26920E9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4379,7 +4424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4486,13 +4531,13 @@
         <v>3595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4501,13 +4546,13 @@
         <v>1053</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4516,13 +4561,13 @@
         <v>4648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4582,13 @@
         <v>775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4558,7 +4603,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4567,13 +4612,13 @@
         <v>775</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,7 +4639,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4609,7 +4654,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4624,7 +4669,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4684,13 @@
         <v>2167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4654,13 +4699,13 @@
         <v>2207</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4669,13 +4714,13 @@
         <v>4374</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4735,13 @@
         <v>4985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4705,13 +4750,13 @@
         <v>1213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4720,13 +4765,13 @@
         <v>6198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4786,13 @@
         <v>104241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -4756,13 +4801,13 @@
         <v>107433</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -4771,13 +4816,13 @@
         <v>211674</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4890,13 @@
         <v>10547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4860,13 +4905,13 @@
         <v>5296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -4878,10 +4923,10 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4941,13 @@
         <v>1125</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4911,13 +4956,13 @@
         <v>3546</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4926,13 +4971,13 @@
         <v>4672</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4992,13 @@
         <v>943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4962,13 +5007,13 @@
         <v>1905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4977,13 +5022,13 @@
         <v>2848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5043,13 @@
         <v>7702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5013,13 +5058,13 @@
         <v>9696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5031,10 +5076,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5094,13 @@
         <v>15161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -5064,13 +5109,13 @@
         <v>10817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -5079,13 +5124,13 @@
         <v>25978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5145,13 @@
         <v>550227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>521</v>
@@ -5115,13 +5160,13 @@
         <v>552945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>1037</v>
@@ -5130,13 +5175,13 @@
         <v>1103172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5237,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5204,13 +5249,13 @@
         <v>23268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5219,13 +5264,13 @@
         <v>15688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -5234,13 +5279,13 @@
         <v>38956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5300,13 @@
         <v>3080</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5270,13 +5315,13 @@
         <v>2014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5285,13 +5330,13 @@
         <v>5094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5351,13 @@
         <v>2924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5321,13 +5366,13 @@
         <v>1050</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5336,13 +5381,13 @@
         <v>3974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5402,13 @@
         <v>19610</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5372,13 +5417,13 @@
         <v>7971</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>301</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -5390,10 +5435,10 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5453,13 @@
         <v>33318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5423,13 +5468,13 @@
         <v>37419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5438,13 +5483,13 @@
         <v>70738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5504,13 @@
         <v>935747</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>880</v>
@@ -5474,13 +5519,13 @@
         <v>965978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -5489,13 +5534,13 @@
         <v>1901725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5596,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5563,13 +5608,13 @@
         <v>18819</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -5578,13 +5623,13 @@
         <v>18374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -5593,13 +5638,13 @@
         <v>37193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,7 +5665,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5629,13 +5674,13 @@
         <v>1067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5644,13 +5689,13 @@
         <v>1067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5710,13 @@
         <v>4894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5680,13 +5725,13 @@
         <v>2806</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5695,13 +5740,13 @@
         <v>7700</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5761,13 @@
         <v>21536</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5731,13 +5776,13 @@
         <v>17001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5746,13 +5791,13 @@
         <v>38536</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>94</v>
+        <v>351</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5812,13 @@
         <v>49825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5782,13 +5827,13 @@
         <v>30386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -5797,13 +5842,13 @@
         <v>80211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5863,13 @@
         <v>660523</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>641</v>
@@ -5833,13 +5878,13 @@
         <v>706541</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M30" s="7">
         <v>1242</v>
@@ -5848,13 +5893,13 @@
         <v>1367064</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,7 +5955,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5922,13 +5967,13 @@
         <v>32707</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5937,13 +5982,13 @@
         <v>20958</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="M32" s="7">
         <v>48</v>
@@ -5952,13 +5997,13 @@
         <v>53664</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6018,13 @@
         <v>5993</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>96</v>
+        <v>376</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -5988,13 +6033,13 @@
         <v>5250</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -6003,13 +6048,13 @@
         <v>11243</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6069,13 @@
         <v>970</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6039,13 +6084,13 @@
         <v>2913</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6054,13 +6099,13 @@
         <v>3882</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6120,13 @@
         <v>13313</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>26</v>
+        <v>379</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -6090,13 +6135,13 @@
         <v>12580</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -6105,13 +6150,13 @@
         <v>25892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>174</v>
+        <v>381</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6171,13 @@
         <v>32578</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -6144,10 +6189,10 @@
         <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -6156,13 +6201,13 @@
         <v>60473</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6222,13 @@
         <v>860305</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H37" s="7">
         <v>933</v>
@@ -6192,13 +6237,13 @@
         <v>980183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M37" s="7">
         <v>1759</v>
@@ -6207,13 +6252,13 @@
         <v>1840487</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6326,13 @@
         <v>88935</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H39" s="7">
         <v>56</v>
@@ -6296,10 +6341,10 @@
         <v>61369</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>397</v>
@@ -6317,7 +6362,7 @@
         <v>399</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,10 +6380,10 @@
         <v>61</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -6347,13 +6392,13 @@
         <v>11878</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>401</v>
+        <v>141</v>
       </c>
       <c r="M40" s="7">
         <v>22</v>
@@ -6362,13 +6407,13 @@
         <v>22852</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6428,13 @@
         <v>9730</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -6398,13 +6443,13 @@
         <v>8674</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>58</v>
+        <v>402</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -6413,13 +6458,13 @@
         <v>18404</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6479,13 @@
         <v>64328</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H42" s="7">
         <v>48</v>
@@ -6449,13 +6494,13 @@
         <v>49455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="M42" s="7">
         <v>109</v>
@@ -6464,13 +6509,13 @@
         <v>113782</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>375</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6530,13 @@
         <v>135868</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="H43" s="7">
         <v>99</v>
@@ -6500,13 +6545,13 @@
         <v>107729</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>52</v>
+        <v>410</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M43" s="7">
         <v>228</v>
@@ -6515,13 +6560,13 @@
         <v>243597</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6581,13 @@
         <v>3111043</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="H44" s="7">
         <v>3070</v>
@@ -6551,13 +6596,13 @@
         <v>3313081</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M44" s="7">
         <v>5986</v>
@@ -6566,13 +6611,13 @@
         <v>6424123</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,7 +6673,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6649,7 +6694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789CBA6E-5B20-45C7-872A-62129B333B37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81231DE9-8B7B-44BF-AB50-BD032B5A0396}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6666,7 +6711,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6773,13 +6818,13 @@
         <v>5826</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6788,13 +6833,13 @@
         <v>2737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6803,13 +6848,13 @@
         <v>8563</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6869,13 @@
         <v>969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6839,13 +6884,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6854,13 +6899,13 @@
         <v>1866</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,7 +6926,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6911,7 +6956,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6971,13 @@
         <v>1100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6956,13 +7001,13 @@
         <v>1100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
+        <v>402</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +7022,13 @@
         <v>11194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6992,13 +7037,13 @@
         <v>1731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -7007,13 +7052,13 @@
         <v>12925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7073,13 @@
         <v>97457</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -7043,13 +7088,13 @@
         <v>107995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
@@ -7058,13 +7103,13 @@
         <v>205452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7177,13 @@
         <v>12767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7147,13 +7192,13 @@
         <v>5908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7162,13 +7207,13 @@
         <v>18674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,7 +7234,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>442</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7198,13 +7243,13 @@
         <v>969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7213,13 +7258,13 @@
         <v>2928</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7279,13 @@
         <v>1894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7249,13 +7294,13 @@
         <v>1049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7264,13 +7309,13 @@
         <v>2943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7330,13 @@
         <v>15114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7300,13 +7345,13 @@
         <v>8084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -7315,13 +7360,13 @@
         <v>23198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7381,13 @@
         <v>25154</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -7351,13 +7396,13 @@
         <v>13878</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>344</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>301</v>
+        <v>456</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -7366,13 +7411,13 @@
         <v>39032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>453</v>
+        <v>349</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>149</v>
+        <v>462</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>454</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7432,13 @@
         <v>499581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>519</v>
@@ -7402,28 +7447,28 @@
         <v>528398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>1003</v>
       </c>
       <c r="N16" s="7">
-        <v>1027979</v>
+        <v>1027980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,7 +7510,7 @@
         <v>1087</v>
       </c>
       <c r="N17" s="7">
-        <v>1114754</v>
+        <v>1114755</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>42</v>
@@ -7479,7 +7524,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -7491,13 +7536,13 @@
         <v>18774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7506,13 +7551,13 @@
         <v>12155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -7521,13 +7566,13 @@
         <v>30929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>135</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,10 +7590,10 @@
         <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7557,13 +7602,13 @@
         <v>4355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -7575,10 +7620,10 @@
         <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7638,13 @@
         <v>4009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7608,13 +7653,13 @@
         <v>4085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7623,13 +7668,13 @@
         <v>8094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7689,13 @@
         <v>18584</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>469</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7659,13 +7704,13 @@
         <v>17270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>179</v>
+        <v>372</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -7674,13 +7719,13 @@
         <v>35853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7740,13 @@
         <v>64873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -7710,13 +7755,13 @@
         <v>51041</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -7725,13 +7770,13 @@
         <v>115914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,13 +7791,13 @@
         <v>910950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -7761,13 +7806,13 @@
         <v>953061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>488</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M23" s="7">
         <v>1737</v>
@@ -7776,13 +7821,13 @@
         <v>1864011</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,7 +7883,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7850,13 +7895,13 @@
         <v>11867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>485</v>
+        <v>266</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7865,13 +7910,13 @@
         <v>6950</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -7880,13 +7925,13 @@
         <v>18817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7946,13 @@
         <v>2792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7916,13 +7961,13 @@
         <v>1027</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7931,13 +7976,13 @@
         <v>3820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7997,13 @@
         <v>2253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7973,7 +8018,7 @@
         <v>15</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -7982,13 +8027,13 @@
         <v>2253</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>183</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,13 +8048,13 @@
         <v>11477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -8018,13 +8063,13 @@
         <v>6727</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -8033,13 +8078,13 @@
         <v>18204</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>351</v>
+        <v>496</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8099,13 @@
         <v>35298</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>488</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -8069,13 +8114,13 @@
         <v>33573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -8084,13 +8129,13 @@
         <v>68871</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>493</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8150,13 @@
         <v>694782</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H30" s="7">
         <v>688</v>
@@ -8120,13 +8165,13 @@
         <v>736733</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="M30" s="7">
         <v>1325</v>
@@ -8135,13 +8180,13 @@
         <v>1431515</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>503</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,7 +8242,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8209,13 +8254,13 @@
         <v>15146</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>513</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8224,13 +8269,13 @@
         <v>7481</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -8239,13 +8284,13 @@
         <v>22627</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>419</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8305,13 @@
         <v>2115</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>505</v>
+        <v>376</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -8275,13 +8320,13 @@
         <v>5080</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8290,13 +8335,13 @@
         <v>7194</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8356,13 @@
         <v>1125</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>378</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -8326,13 +8371,13 @@
         <v>2056</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -8341,13 +8386,13 @@
         <v>3181</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,10 +8410,10 @@
         <v>44</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -8377,13 +8422,13 @@
         <v>9074</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>402</v>
+        <v>56</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>24</v>
@@ -8392,13 +8437,13 @@
         <v>24570</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,13 +8458,13 @@
         <v>34042</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>509</v>
+        <v>292</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -8428,13 +8473,13 @@
         <v>37559</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>374</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -8443,13 +8488,13 @@
         <v>71601</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,13 +8509,13 @@
         <v>869644</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>416</v>
+        <v>525</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>312</v>
+        <v>527</v>
       </c>
       <c r="H37" s="7">
         <v>900</v>
@@ -8479,13 +8524,13 @@
         <v>981417</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>313</v>
+        <v>529</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="M37" s="7">
         <v>1766</v>
@@ -8494,13 +8539,13 @@
         <v>1851060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8613,13 @@
         <v>64378</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>522</v>
+        <v>149</v>
       </c>
       <c r="H39" s="7">
         <v>35</v>
@@ -8583,13 +8628,13 @@
         <v>35232</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>468</v>
+        <v>190</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>146</v>
+        <v>534</v>
       </c>
       <c r="M39" s="7">
         <v>93</v>
@@ -8598,13 +8643,13 @@
         <v>99610</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,10 +8667,10 @@
         <v>30</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>378</v>
+        <v>251</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -8637,10 +8682,10 @@
         <v>30</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>54</v>
+        <v>401</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>147</v>
+        <v>517</v>
       </c>
       <c r="M40" s="7">
         <v>22</v>
@@ -8652,10 +8697,10 @@
         <v>30</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,13 +8715,13 @@
         <v>9281</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>506</v>
+        <v>144</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>57</v>
+        <v>537</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -8685,13 +8730,13 @@
         <v>7189</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -8700,13 +8745,13 @@
         <v>16471</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,13 +8766,13 @@
         <v>61770</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>525</v>
+        <v>318</v>
       </c>
       <c r="H42" s="7">
         <v>41</v>
@@ -8739,10 +8784,10 @@
         <v>29</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>345</v>
+        <v>538</v>
       </c>
       <c r="M42" s="7">
         <v>100</v>
@@ -8754,10 +8799,10 @@
         <v>150</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>355</v>
+        <v>539</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>526</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8817,13 @@
         <v>170561</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="H43" s="7">
         <v>135</v>
@@ -8787,13 +8832,13 @@
         <v>137782</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>73</v>
+        <v>542</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>71</v>
+        <v>544</v>
       </c>
       <c r="M43" s="7">
         <v>296</v>
@@ -8802,13 +8847,13 @@
         <v>308344</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8823,13 +8868,13 @@
         <v>3072414</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>244</v>
+        <v>550</v>
       </c>
       <c r="H44" s="7">
         <v>3106</v>
@@ -8838,13 +8883,13 @@
         <v>3307603</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M44" s="7">
         <v>6035</v>
@@ -8853,13 +8898,13 @@
         <v>6380018</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8915,7 +8960,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCDC925-EBEA-4610-BE16-E11EFC187FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3919A4EC-3B6D-47C9-A2D2-D82CB5A300D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34AA269F-ED13-49E5-9C18-0F1718C35E88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16EF5B4F-5D85-4A44-A747-F6621099A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="544">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2007 (Tasa respuesta: 99,83%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada, no suele desayunar</t>
@@ -76,1639 +76,1600 @@
     <t>2,66%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>Otro tipo de alimentos</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Otro tipo de alimentos</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2012 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 1 en 2015 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E4B62-3339-4AF7-ADB7-D375B7CC09A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958A2842-E4D4-4699-A18E-34CAC09EFFCB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2606,7 +2567,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>45</v>
@@ -2621,10 +2582,10 @@
         <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -2633,13 +2594,13 @@
         <v>19253</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2669,13 +2630,13 @@
         <v>1073</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2684,13 +2645,13 @@
         <v>1073</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2666,13 @@
         <v>2814</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2720,13 +2681,13 @@
         <v>929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2735,13 +2696,13 @@
         <v>3743</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2717,13 @@
         <v>1917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2774,7 +2735,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
@@ -2786,13 +2747,13 @@
         <v>8600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2768,10 @@
         <v>17150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>69</v>
@@ -3049,7 +3010,7 @@
         <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3100,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3076,13 @@
         <v>10265</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3130,13 +3091,13 @@
         <v>15347</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3145,13 +3106,13 @@
         <v>25612</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3127,13 @@
         <v>44532</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -3181,13 +3142,13 @@
         <v>45965</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -3196,13 +3157,13 @@
         <v>90497</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3178,13 @@
         <v>882739</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>831</v>
@@ -3232,13 +3193,13 @@
         <v>887193</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>1652</v>
@@ -3247,13 +3208,13 @@
         <v>1769933</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3270,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3321,13 +3282,13 @@
         <v>15973</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3336,10 +3297,10 @@
         <v>11171</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>132</v>
@@ -3393,7 +3354,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3402,13 +3363,13 @@
         <v>2982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3384,13 @@
         <v>1681</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -3438,13 +3399,13 @@
         <v>916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -3453,13 +3414,13 @@
         <v>2597</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3435,13 @@
         <v>9337</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -3489,13 +3450,13 @@
         <v>17140</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -3504,13 +3465,13 @@
         <v>26476</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,10 +3486,10 @@
         <v>43912</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>155</v>
@@ -3561,7 +3522,7 @@
         <v>160</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3537,13 @@
         <v>604560</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>629</v>
@@ -3591,13 +3552,13 @@
         <v>618607</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>1202</v>
@@ -3606,13 +3567,13 @@
         <v>1223167</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3662,7 @@
         <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -3710,10 +3671,10 @@
         <v>37370</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>178</v>
@@ -3737,7 +3698,7 @@
         <v>180</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3752,7 +3713,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -3761,13 +3722,13 @@
         <v>8506</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3803,7 +3764,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3833,13 +3794,13 @@
         <v>17512</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -3848,13 +3809,13 @@
         <v>10673</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -3863,13 +3824,13 @@
         <v>28185</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3845,13 @@
         <v>76419</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H36" s="7">
         <v>87</v>
@@ -3899,13 +3860,13 @@
         <v>89611</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7">
         <v>166</v>
@@ -3914,13 +3875,13 @@
         <v>166030</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3896,13 @@
         <v>819463</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>878</v>
@@ -3950,13 +3911,13 @@
         <v>916487</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>1747</v>
@@ -3965,13 +3926,13 @@
         <v>1735950</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4000,13 @@
         <v>67542</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4054,13 +4015,13 @@
         <v>53550</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="M39" s="7">
         <v>120</v>
@@ -4069,13 +4030,13 @@
         <v>121092</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4051,13 @@
         <v>9443</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -4108,10 +4069,10 @@
         <v>95</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -4120,10 +4081,10 @@
         <v>16519</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>18</v>
@@ -4141,13 +4102,13 @@
         <v>6499</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4162,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -4171,13 +4132,13 @@
         <v>8344</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4153,13 @@
         <v>39030</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7">
         <v>50</v>
@@ -4207,13 +4168,13 @@
         <v>49843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M42" s="7">
         <v>87</v>
@@ -4222,13 +4183,13 @@
         <v>88873</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4204,13 @@
         <v>182013</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>203</v>
@@ -4258,13 +4219,13 @@
         <v>204008</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="M43" s="7">
         <v>379</v>
@@ -4273,13 +4234,13 @@
         <v>386022</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4255,13 @@
         <v>2965289</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H44" s="7">
         <v>2979</v>
@@ -4309,13 +4270,13 @@
         <v>3058851</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M44" s="7">
         <v>5890</v>
@@ -4324,13 +4285,13 @@
         <v>6024139</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4347,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E3451-380F-4744-A6C6-6D05B26920E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005FC245-BA84-49F4-B474-E028423C41E6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4424,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4531,13 +4492,13 @@
         <v>3595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4546,13 +4507,13 @@
         <v>1053</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4561,13 +4522,13 @@
         <v>4648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4543,13 @@
         <v>775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4603,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4612,13 +4573,13 @@
         <v>775</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4600,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4654,7 +4615,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4669,7 +4630,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4645,13 @@
         <v>2167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4699,13 +4660,13 @@
         <v>2207</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4714,13 +4675,13 @@
         <v>4374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4696,13 @@
         <v>4985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4750,13 +4711,13 @@
         <v>1213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4765,13 +4726,13 @@
         <v>6198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4747,13 @@
         <v>104241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -4801,13 +4762,13 @@
         <v>107433</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -4816,13 +4777,13 @@
         <v>211674</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4851,13 @@
         <v>10547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4905,13 +4866,13 @@
         <v>5296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -4923,10 +4884,10 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4902,13 @@
         <v>1125</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4956,13 +4917,13 @@
         <v>3546</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4971,13 +4932,13 @@
         <v>4672</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4953,13 @@
         <v>943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5007,13 +4968,13 @@
         <v>1905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5022,13 +4983,13 @@
         <v>2848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5004,13 @@
         <v>7702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5058,13 +5019,13 @@
         <v>9696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5076,10 +5037,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5055,13 @@
         <v>15161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -5109,13 +5070,13 @@
         <v>10817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -5124,13 +5085,13 @@
         <v>25978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5106,13 @@
         <v>550227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>521</v>
@@ -5160,13 +5121,13 @@
         <v>552945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>1037</v>
@@ -5175,13 +5136,13 @@
         <v>1103172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5210,13 @@
         <v>23268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5264,13 +5225,13 @@
         <v>15688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -5279,13 +5240,13 @@
         <v>38956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,10 +5264,10 @@
         <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5315,13 +5276,13 @@
         <v>2014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5330,13 +5291,13 @@
         <v>5094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5312,13 @@
         <v>2924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5372,7 +5333,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5381,13 +5342,13 @@
         <v>3974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5363,13 @@
         <v>19610</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5417,13 +5378,13 @@
         <v>7971</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -5435,10 +5396,10 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5414,13 @@
         <v>33318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5471,10 +5432,10 @@
         <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5483,13 +5444,13 @@
         <v>70738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5465,13 @@
         <v>935747</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>880</v>
@@ -5519,13 +5480,13 @@
         <v>965978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -5534,13 +5495,13 @@
         <v>1901725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,7 +5557,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5608,13 +5569,13 @@
         <v>18819</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>328</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -5623,13 +5584,13 @@
         <v>18374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -5638,13 +5599,13 @@
         <v>37193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,7 +5626,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5680,7 +5641,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5689,13 +5650,13 @@
         <v>1067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5671,13 @@
         <v>4894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5725,13 +5686,13 @@
         <v>2806</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>344</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5740,13 +5701,13 @@
         <v>7700</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>313</v>
+        <v>64</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5722,13 @@
         <v>21536</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5776,13 +5737,13 @@
         <v>17001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5791,13 +5752,13 @@
         <v>38536</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5773,13 @@
         <v>49825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5827,13 +5788,13 @@
         <v>30386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -5842,13 +5803,13 @@
         <v>80211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5824,13 @@
         <v>660523</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="H30" s="7">
         <v>641</v>
@@ -5878,13 +5839,13 @@
         <v>706541</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>1242</v>
@@ -5893,13 +5854,13 @@
         <v>1367064</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5928,13 @@
         <v>32707</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5982,13 +5943,13 @@
         <v>20958</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>48</v>
@@ -5997,13 +5958,13 @@
         <v>53664</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +5979,13 @@
         <v>5993</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>377</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -6033,13 +5994,13 @@
         <v>5250</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>313</v>
+        <v>64</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -6048,13 +6009,13 @@
         <v>11243</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,7 +6036,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6084,13 +6045,13 @@
         <v>2913</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6099,13 +6060,13 @@
         <v>3882</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6081,13 @@
         <v>13313</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>179</v>
+        <v>369</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -6135,13 +6096,13 @@
         <v>12580</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>371</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -6150,13 +6111,13 @@
         <v>25892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>382</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6132,13 @@
         <v>32578</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>112</v>
+        <v>374</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -6189,10 +6150,10 @@
         <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -6201,13 +6162,13 @@
         <v>60473</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6183,13 @@
         <v>860305</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H37" s="7">
         <v>933</v>
@@ -6237,13 +6198,13 @@
         <v>980183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M37" s="7">
         <v>1759</v>
@@ -6252,13 +6213,13 @@
         <v>1840487</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6287,13 @@
         <v>88935</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H39" s="7">
         <v>56</v>
@@ -6341,13 +6302,13 @@
         <v>61369</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M39" s="7">
         <v>133</v>
@@ -6356,13 +6317,13 @@
         <v>150304</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>399</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6338,13 @@
         <v>10973</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -6392,13 +6353,13 @@
         <v>11878</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="M40" s="7">
         <v>22</v>
@@ -6407,13 +6368,13 @@
         <v>22852</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>57</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6389,13 @@
         <v>9730</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -6443,13 +6404,13 @@
         <v>8674</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>402</v>
+        <v>64</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -6458,13 +6419,13 @@
         <v>18404</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6440,13 @@
         <v>64328</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="H42" s="7">
         <v>48</v>
@@ -6494,13 +6455,13 @@
         <v>49455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="M42" s="7">
         <v>109</v>
@@ -6509,13 +6470,13 @@
         <v>113782</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6491,13 @@
         <v>135868</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="H43" s="7">
         <v>99</v>
@@ -6545,13 +6506,13 @@
         <v>107729</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>410</v>
+        <v>91</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M43" s="7">
         <v>228</v>
@@ -6560,13 +6521,13 @@
         <v>243597</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>186</v>
+        <v>403</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,28 +6542,28 @@
         <v>3111043</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>236</v>
+        <v>406</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H44" s="7">
         <v>3070</v>
       </c>
       <c r="I44" s="7">
-        <v>3313081</v>
+        <v>3313080</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M44" s="7">
         <v>5986</v>
@@ -6611,13 +6572,13 @@
         <v>6424123</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6605,7 @@
         <v>3292</v>
       </c>
       <c r="I45" s="7">
-        <v>3552186</v>
+        <v>3552185</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>42</v>
@@ -6673,7 +6634,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6694,7 +6655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81231DE9-8B7B-44BF-AB50-BD032B5A0396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4B789-16F2-4593-96E0-9A7C6A82C69C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6711,7 +6672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6818,13 +6779,13 @@
         <v>5826</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6833,13 +6794,13 @@
         <v>2737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>63</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6848,13 +6809,13 @@
         <v>8563</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6830,13 @@
         <v>969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6890,7 +6851,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6899,13 +6860,13 @@
         <v>1866</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +6887,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6956,7 +6917,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6932,13 @@
         <v>1100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7001,13 +6962,13 @@
         <v>1100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +6983,13 @@
         <v>11194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7037,13 +6998,13 @@
         <v>1731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -7052,13 +7013,13 @@
         <v>12925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7034,13 @@
         <v>97457</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>442</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -7088,13 +7049,13 @@
         <v>107995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
@@ -7103,13 +7064,13 @@
         <v>205452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7138,13 @@
         <v>12767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>442</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7192,13 +7153,13 @@
         <v>5908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>453</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7207,13 +7168,13 @@
         <v>18674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,7 +7195,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7243,13 +7204,13 @@
         <v>969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7258,13 +7219,13 @@
         <v>2928</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>454</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7240,13 @@
         <v>1894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7294,13 +7255,13 @@
         <v>1049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7309,13 +7270,13 @@
         <v>2943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7291,13 @@
         <v>15114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7345,13 +7306,13 @@
         <v>8084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -7360,13 +7321,13 @@
         <v>23198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7342,13 @@
         <v>25154</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -7396,13 +7357,13 @@
         <v>13878</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -7411,13 +7372,13 @@
         <v>39032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7393,13 @@
         <v>499581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>519</v>
@@ -7447,28 +7408,28 @@
         <v>528398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>1003</v>
       </c>
       <c r="N16" s="7">
-        <v>1027980</v>
+        <v>1027979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7471,7 @@
         <v>1087</v>
       </c>
       <c r="N17" s="7">
-        <v>1114755</v>
+        <v>1114754</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>42</v>
@@ -7536,13 +7497,13 @@
         <v>18774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7551,13 +7512,13 @@
         <v>12155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -7566,13 +7527,13 @@
         <v>30929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>258</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,10 +7551,10 @@
         <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7602,13 +7563,13 @@
         <v>4355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -7620,10 +7581,10 @@
         <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7599,13 @@
         <v>4009</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7653,13 +7614,13 @@
         <v>4085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>464</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7668,13 +7629,13 @@
         <v>8094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>464</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7650,13 @@
         <v>18584</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7704,13 +7665,13 @@
         <v>17270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>473</v>
+        <v>97</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -7719,13 +7680,13 @@
         <v>35853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7701,13 @@
         <v>64873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -7755,13 +7716,13 @@
         <v>51041</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -7770,13 +7731,13 @@
         <v>115914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7752,13 @@
         <v>910950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -7806,13 +7767,13 @@
         <v>953061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>1737</v>
@@ -7821,13 +7782,13 @@
         <v>1864011</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,7 +7844,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7895,13 +7856,13 @@
         <v>11867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>266</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7910,13 +7871,13 @@
         <v>6950</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -7925,13 +7886,13 @@
         <v>18817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7907,13 @@
         <v>2792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7961,13 +7922,13 @@
         <v>1027</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7976,13 +7937,13 @@
         <v>3820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,7 +7964,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>494</v>
+        <v>87</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -8018,7 +7979,7 @@
         <v>15</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -8033,7 +7994,7 @@
         <v>14</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8009,13 @@
         <v>11477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>249</v>
+        <v>488</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -8063,13 +8024,13 @@
         <v>6727</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -8078,13 +8039,13 @@
         <v>18204</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8060,13 @@
         <v>35298</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>492</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>498</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -8114,13 +8075,13 @@
         <v>33573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -8129,13 +8090,13 @@
         <v>68871</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8111,13 @@
         <v>694782</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H30" s="7">
         <v>688</v>
@@ -8165,13 +8126,13 @@
         <v>736733</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M30" s="7">
         <v>1325</v>
@@ -8180,13 +8141,13 @@
         <v>1431515</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8215,13 @@
         <v>15146</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>512</v>
+        <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8269,13 +8230,13 @@
         <v>7481</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>514</v>
+        <v>328</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -8284,13 +8245,13 @@
         <v>22627</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8266,13 @@
         <v>2115</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -8320,13 +8281,13 @@
         <v>5080</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>264</v>
+        <v>444</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8335,13 +8296,13 @@
         <v>7194</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>312</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8317,13 @@
         <v>1125</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>517</v>
+        <v>146</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -8371,13 +8332,13 @@
         <v>2056</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -8386,13 +8347,13 @@
         <v>3181</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>182</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8410,10 +8371,10 @@
         <v>44</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>465</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -8422,13 +8383,13 @@
         <v>9074</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>56</v>
+        <v>445</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>24</v>
@@ -8437,13 +8398,13 @@
         <v>24570</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>519</v>
+        <v>93</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8461,10 +8422,10 @@
         <v>19</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -8473,13 +8434,13 @@
         <v>37559</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>374</v>
+        <v>511</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -8488,13 +8449,13 @@
         <v>71601</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>522</v>
+        <v>331</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,13 +8470,13 @@
         <v>869644</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H37" s="7">
         <v>900</v>
@@ -8524,13 +8485,13 @@
         <v>981417</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="M37" s="7">
         <v>1766</v>
@@ -8539,13 +8500,13 @@
         <v>1851060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>409</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8574,13 @@
         <v>64378</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>149</v>
+        <v>512</v>
       </c>
       <c r="H39" s="7">
         <v>35</v>
@@ -8628,13 +8589,13 @@
         <v>35232</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>190</v>
+        <v>465</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>534</v>
+        <v>172</v>
       </c>
       <c r="M39" s="7">
         <v>93</v>
@@ -8643,13 +8604,13 @@
         <v>99610</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>351</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8667,10 +8628,10 @@
         <v>30</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>526</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -8682,10 +8643,10 @@
         <v>30</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>517</v>
+        <v>366</v>
       </c>
       <c r="M40" s="7">
         <v>22</v>
@@ -8697,10 +8658,10 @@
         <v>30</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,13 +8676,13 @@
         <v>9281</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>536</v>
+        <v>367</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>537</v>
+        <v>101</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -8730,13 +8691,13 @@
         <v>7189</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>18</v>
+        <v>464</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -8745,13 +8706,13 @@
         <v>16471</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8766,13 +8727,13 @@
         <v>61770</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>514</v>
+        <v>144</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="H42" s="7">
         <v>41</v>
@@ -8784,10 +8745,10 @@
         <v>29</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>538</v>
+        <v>252</v>
       </c>
       <c r="M42" s="7">
         <v>100</v>
@@ -8796,13 +8757,13 @@
         <v>102925</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8817,13 +8778,13 @@
         <v>170561</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>501</v>
+        <v>230</v>
       </c>
       <c r="H43" s="7">
         <v>135</v>
@@ -8832,13 +8793,13 @@
         <v>137782</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M43" s="7">
         <v>296</v>
@@ -8847,13 +8808,13 @@
         <v>308344</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8829,13 @@
         <v>3072414</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>550</v>
+        <v>163</v>
       </c>
       <c r="H44" s="7">
         <v>3106</v>
@@ -8883,13 +8844,13 @@
         <v>3307603</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="M44" s="7">
         <v>6035</v>
@@ -8898,13 +8859,13 @@
         <v>6380018</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8960,7 +8921,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
